--- a/0.Raw Data/Other_Name.of.calibration.algorithm.xlsx
+++ b/0.Raw Data/Other_Name.of.calibration.algorithm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hu-my.sharepoint.com/personal/leacavalli_g_harvard_edu/Documents/Documents/GitHub/Calibration-Review/0.Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{01107FC7-612C-40BD-86DE-BEBE18B5113F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEAD6878-3A17-42C1-9D6C-F446EDC36DFC}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{01107FC7-612C-40BD-86DE-BEBE18B5113F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA44DA0-AE3A-4A66-BFB0-C97FF6381A25}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3080" windowWidth="18670" windowHeight="11650" xr2:uid="{54E1F2A7-E795-4F98-AA5D-379E18E6D8A8}"/>
+    <workbookView xWindow="37320" yWindow="-5490" windowWidth="29040" windowHeight="15720" xr2:uid="{54E1F2A7-E795-4F98-AA5D-379E18E6D8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="49">
   <si>
     <t>Covidence.ID</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Not reported</t>
   </si>
   <si>
-    <t>Broyden-Fletcher-Goldfarb-Shanno algorithm; Nelder-Mead algorithm</t>
-  </si>
-  <si>
     <t>Nelder-Mead algorithm; Incremental Mixture Importance Sampling (IMIS)</t>
   </si>
   <si>
@@ -171,13 +168,28 @@
   </si>
   <si>
     <t>Uniform sampling with least squares estimation for each sample</t>
+  </si>
+  <si>
+    <t>Filtering method</t>
+  </si>
+  <si>
+    <t>Nelder-Mead algorithm; Broyden-Fletcher-Goldfarb-Shanno algorithm; Sampling importance resampling (SIR)</t>
+  </si>
+  <si>
+    <t>Other ; Manual (hand-tuning)</t>
+  </si>
+  <si>
+    <t>Broyden-Fletcher-Goldfarb-Shanno algorithm; Laplace approximation</t>
+  </si>
+  <si>
+    <t>Least squares estimation; Manual (hand-tuning)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,18 +204,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -218,11 +249,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3781DC01-C91D-4804-86BD-093FAE220CEE}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +721,7 @@
         <v>482</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -786,7 +821,7 @@
         <v>845</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1163,10 +1198,7 @@
         <v>3251</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1180,9 +1212,56 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>526</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
         <v>44</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>1711</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>355</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>76</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1191,5 +1270,6 @@
     <sortCondition ref="A1:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>